--- a/Price Calculator Admin.xlsx
+++ b/Price Calculator Admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beltonene-my.sharepoint.com/personal/npacheco_beltonene_com/Documents/Pricing Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3055" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CB66D0B-EB8F-55EF-AB28-DF13FCA011E3}"/>
+  <xr:revisionPtr revIDLastSave="3063" documentId="8_{F3CD0FF8-58C3-41F7-B22B-5E277AA3B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06449700-E868-4C1B-A2E1-8045A1C1F472}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="340" windowWidth="19180" windowHeight="10160" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{117CC408-EBB5-49DC-AD42-2C9AA08047CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Calculator" sheetId="2" r:id="rId1"/>
@@ -2457,6 +2457,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2504,41 +2539,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3724,32 +3724,32 @@
   <sheetData>
     <row r="4" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="101"/>
+      <c r="B5" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="85"/>
       <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="82" t="s">
         <v>575</v>
       </c>
-      <c r="C6" s="99"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="44" t="s">
         <v>3</v>
       </c>
@@ -3771,10 +3771,10 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="88"/>
       <c r="E10" s="12" t="s">
         <v>452</v>
       </c>
@@ -3784,27 +3784,27 @@
       <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="94" t="str">
+      <c r="B11" s="104" t="str">
         <f>IF($B$6="","",$B$6)</f>
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="50" cm="1">
         <f t="array" ref="E11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3817,28 +3817,28 @@
         <f>E11-F11</f>
         <v>4300</v>
       </c>
-      <c r="J11" s="83" t="str" cm="1">
+      <c r="J11" s="93" t="str" cm="1">
         <f t="array" ref="J11">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!D:D))</f>
         <v>()</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="94" t="str">
+      <c r="B12" s="104" t="str">
         <f>IF($D$6=1,"",B11)</f>
         <v>Beltone RIE Digital Envision 17 62S-DRWC</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="64" cm="1">
         <f t="array" ref="E12">IF($D$6=1,"0",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!F:F))</f>
         <v>5819</v>
@@ -3851,25 +3851,25 @@
         <f>E12-F12</f>
         <v>4300</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="94" t="str" cm="1">
+      <c r="B13" s="104" t="str" cm="1">
         <f t="array" ref="B13">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!G:G))</f>
         <v>Standard Charger</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="13" cm="1">
         <f t="array" ref="E13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
@@ -3882,26 +3882,26 @@
         <f t="array" ref="G13">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!H:H))</f>
         <v>250</v>
       </c>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="94" t="str" cm="1">
+      <c r="B14" s="104" t="str" cm="1">
         <f t="array" ref="B14">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!N:N))</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="48"/>
       <c r="F14" s="30" t="str" cm="1">
         <f t="array" ref="F14">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3911,26 +3911,26 @@
         <f t="array" ref="G14">IF($B$13="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="94" t="str">
+      <c r="B15" s="104" t="str">
         <f>IF($D$6=1,"",B14)</f>
         <v>SureFit3 or M@RIE Receiver</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="48"/>
       <c r="F15" s="30" t="str" cm="1">
         <f t="array" ref="F15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!P:P))</f>
@@ -3940,46 +3940,46 @@
         <f t="array" ref="G15">IF($B$12="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!O:O/2))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="13">
         <f>SUM(G11:G15)</f>
         <v>8850</v>
       </c>
-      <c r="J16" s="91" cm="1">
+      <c r="J16" s="101" cm="1">
         <f t="array" ref="J16">IF($B$6="","",_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="103"/>
     </row>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="90" t="str" cm="1">
+      <c r="B17" s="100" t="str" cm="1">
         <f t="array" ref="B17">IF($B$6="","",IF(_xlfn.XLOOKUP($B$6&amp;E6,haList!A:A&amp;haList!E:E,haList!M:M)=1,"PA Fitting Fee","(do not charge a PA Fitting Fee)"))</f>
         <v>PA Fitting Fee</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="13" cm="1">
@@ -3992,11 +3992,11 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="14">
@@ -4006,9 +4006,9 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="14"/>
@@ -4020,12 +4020,12 @@
       <c r="G20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="83" t="e" cm="1" vm="1">
+      <c r="L20" s="93" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="L20" ca="1">_xlfn.IMAGE("https://chart.googleapis.com/chart?chs=500x500&amp;&amp;cht=qr&amp;chl="&amp;_xlfn.XLOOKUP($B$6&amp;$E$6,haList!A:A&amp;haList!E:E,haList!C:C))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="84"/>
-      <c r="N20" s="85"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -4039,9 +4039,9 @@
       <c r="G21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="88"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -4059,9 +4059,9 @@
       <c r="H22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="98"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -4077,9 +4077,9 @@
       <c r="H23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -4098,9 +4098,9 @@
         <f>IF(E6="Anthem BCBS",((G16*60%)*G23)+G22,"")</f>
         <v/>
       </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
@@ -4108,9 +4108,9 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="49"/>
       <c r="F25" s="47" t="str">
         <f>IF($G$21='Data Lists'!C3,"Down Payment Type is Needed",IF($G$21='Data Lists'!C4,"20% down payment needed",IF($G$21='Data Lists'!C5,"20% down payment needed",IF($G$21='Data Lists'!C6,"$700 down payment needed",IF(AND($G$21='Data Lists'!C7,G18&gt;5555),"Down Payment Needed",IF(AND($G$21='Data Lists'!C7,G18&lt;5555),"10% Down Payment Needed"))))))</f>
@@ -4137,11 +4137,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="B25:D25"/>
@@ -4156,6 +4151,11 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="L20:N24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{E095DD5D-12CC-4B09-A756-0B16300F1945}">
@@ -4199,7 +4199,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K164" sqref="K164"/>
+      <selection pane="bottomRight" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -12089,14 +12089,13 @@
         <v>250</v>
       </c>
       <c r="I166" s="9">
-        <f t="shared" si="12"/>
-        <v>1144</v>
+        <v>1019</v>
       </c>
       <c r="J166" s="9">
-        <f>(K166-H166-O166)/2</f>
-        <v>4675</v>
+        <v>4800</v>
       </c>
       <c r="K166" s="9">
+        <f>J166*2</f>
         <v>9600</v>
       </c>
       <c r="L166" s="9"/>
